--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QDS\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Question DataBase System\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FAD1CD-A5C9-4CEB-9ECF-272028956C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89726044-7272-43AC-A125-8565240E0AF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -10695,111 +10700,6 @@
         <charset val="136"/>
       </rPr>
       <t>】塊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>李老師將一疊練習本分給同學，每人分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本還多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本，如果每人分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本，那麼有一個同學分不到。問：有【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】個同學、這疊練習本有【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】本</t>
     </r>
   </si>
   <si>
@@ -25188,91 +25088,6 @@
   </si>
   <si>
     <t>用一根繩繞樹5周還剩公尺，若用繩的三分之一繞樹一周還餘公尺。問：繩長【6】公尺，樹的周長【】公尺</t>
-  </si>
-  <si>
-    <r>
-      <t>甲和乙兩人都買了一套相同的信箋盒，甲把每個信封裏裝一張信箋紙，結果用完所有的信封，但剩下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張信紙；乙把每個信封裏裝三張信紙，結果用完了所有的信紙，剩下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個信封。問：每套信箋盒中有【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】張信紙、有【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】個信封</t>
-    </r>
   </si>
   <si>
     <r>
@@ -26998,6 +26813,221 @@
   </si>
   <si>
     <t>題目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>李老師將一疊練習本分給同學，每人分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本還多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本，如果每人分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本，那麼有一個同學分不到。問：有【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】個同學、這疊練習本有【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】本</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕尾定理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如附圖，D在 上，P在 上。已知 ： ＝3：2，則△PBD面積：△PCD面積＝【 3：2  】△APB面積：△APC面積＝【 3：2  】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本題</t>
+  </si>
+  <si>
+    <t>NOIMAGE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>甲和乙兩人都買了一套相同的信箋盒，甲把每個信封裏裝一張信箋紙，結果用完所有的信封，但剩下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張信紙；乙把每個信封裏裝三張信紙，結果用完了所有的信紙，剩下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個信封。問：每套信箋盒中有【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】張信紙、有【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】個信封</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>database\\數學\\應用題\\典型應用題\\燕尾定理\\基本題\\1.png database\\數學\\應用題\\典型應用題\\燕尾定理\\基本題\\2.png</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -27215,7 +27245,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>201</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -27269,7 +27299,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>201</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -27323,7 +27353,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>201</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -27630,55 +27660,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="187.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="187.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
+    <row r="1" spans="1:8" ht="16.5">
       <c r="A1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>230</v>
+      <c r="H1" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.8">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>72</v>
@@ -27689,19 +27722,22 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="16.8">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>72</v>
@@ -27712,19 +27748,22 @@
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="16.8">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>72</v>
@@ -27735,19 +27774,22 @@
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="16.8">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>72</v>
@@ -27758,19 +27800,22 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="16.8">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>72</v>
@@ -27781,19 +27826,22 @@
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="16.8">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>72</v>
@@ -27804,19 +27852,22 @@
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="16.8">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>72</v>
@@ -27827,19 +27878,22 @@
       <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="16.8">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>72</v>
@@ -27850,19 +27904,22 @@
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="16.8">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>72</v>
@@ -27873,19 +27930,22 @@
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H10" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="16.8">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>72</v>
@@ -27896,19 +27956,22 @@
       <c r="G11" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="16.8">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -27919,19 +27982,22 @@
       <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="16.8">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>72</v>
@@ -27942,19 +28008,22 @@
       <c r="G13" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="16.8">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>72</v>
@@ -27965,19 +28034,22 @@
       <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H14" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="33.6">
+    <row r="15" spans="1:8" ht="33">
       <c r="A15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>72</v>
@@ -27988,19 +28060,22 @@
       <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H15" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="16.8">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>72</v>
@@ -28011,19 +28086,22 @@
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="H16" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="16.8">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>72</v>
@@ -28034,19 +28112,22 @@
       <c r="G17" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H17" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="16.8">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>72</v>
@@ -28057,19 +28138,22 @@
       <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="H18" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="16.8">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>72</v>
@@ -28080,19 +28164,22 @@
       <c r="G19" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="16.8">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>72</v>
@@ -28103,19 +28190,22 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="H20" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="16.8">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>72</v>
@@ -28126,19 +28216,22 @@
       <c r="G21" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="H21" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="16.8">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>72</v>
@@ -28149,19 +28242,22 @@
       <c r="G22" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="H22" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="16.8">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>72</v>
@@ -28172,19 +28268,22 @@
       <c r="G23" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="H23" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="16.8">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>72</v>
@@ -28195,19 +28294,22 @@
       <c r="G24" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="H24" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="16.8">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>72</v>
@@ -28218,19 +28320,22 @@
       <c r="G25" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="H25" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" ht="16.8">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>72</v>
@@ -28241,19 +28346,22 @@
       <c r="G26" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="H26" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" ht="16.8">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>72</v>
@@ -28264,19 +28372,22 @@
       <c r="G27" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="H27" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" ht="16.8">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>72</v>
@@ -28287,19 +28398,22 @@
       <c r="G28" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="H28" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" ht="16.8">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>72</v>
@@ -28310,19 +28424,22 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="H29" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" ht="16.8">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>72</v>
@@ -28333,19 +28450,22 @@
       <c r="G30" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="H30" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" ht="16.8">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>72</v>
@@ -28356,19 +28476,22 @@
       <c r="G31" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="H31" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" ht="16.8">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>72</v>
@@ -28379,19 +28502,22 @@
       <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H32" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" ht="16.8">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>72</v>
@@ -28402,19 +28528,22 @@
       <c r="G33" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="H33" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" ht="16.8">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>72</v>
@@ -28425,19 +28554,22 @@
       <c r="G34" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="H34" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" ht="16.8">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>72</v>
@@ -28448,19 +28580,22 @@
       <c r="G35" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="H35" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" ht="16.8">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>72</v>
@@ -28471,19 +28606,22 @@
       <c r="G36" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H36" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" ht="16.8">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>72</v>
@@ -28494,19 +28632,22 @@
       <c r="G37" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H37" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" ht="16.8">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>72</v>
@@ -28517,19 +28658,22 @@
       <c r="G38" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="H38" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" ht="16.8">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>72</v>
@@ -28540,19 +28684,22 @@
       <c r="G39" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="H39" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" ht="33.6">
+    <row r="40" spans="1:8" ht="33">
       <c r="A40" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>72</v>
@@ -28563,19 +28710,22 @@
       <c r="G40" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="H40" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" ht="16.8">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D41" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>72</v>
@@ -28586,19 +28736,22 @@
       <c r="G41" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="H41" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" ht="16.8">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>72</v>
@@ -28609,19 +28762,22 @@
       <c r="G42" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="H42" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" ht="16.8">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>72</v>
@@ -28632,19 +28788,22 @@
       <c r="G43" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="H43" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" ht="16.8">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>72</v>
@@ -28655,19 +28814,22 @@
       <c r="G44" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="H44" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" ht="16.8">
+    <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>72</v>
@@ -28678,19 +28840,22 @@
       <c r="G45" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="H45" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" ht="16.8">
+    <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>72</v>
@@ -28701,19 +28866,22 @@
       <c r="G46" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H46" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" ht="16.8">
+    <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>72</v>
@@ -28724,19 +28892,22 @@
       <c r="G47" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="H47" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" ht="16.8">
+    <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>72</v>
@@ -28747,19 +28918,22 @@
       <c r="G48" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="H48" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8">
+    <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>72</v>
@@ -28770,19 +28944,22 @@
       <c r="G49" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="H49" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" ht="16.8">
+    <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>72</v>
@@ -28793,19 +28970,22 @@
       <c r="G50" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="H50" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" ht="16.8">
+    <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>72</v>
@@ -28816,19 +28996,22 @@
       <c r="G51" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="H51" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" ht="16.8">
+    <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>72</v>
@@ -28839,19 +29022,22 @@
       <c r="G52" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="H52" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="53" spans="1:7" ht="16.8">
+    <row r="53" spans="1:8" ht="16.5">
       <c r="A53" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>72</v>
@@ -28862,19 +29048,22 @@
       <c r="G53" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="H53" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" ht="16.8">
+    <row r="54" spans="1:8" ht="16.5">
       <c r="A54" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>72</v>
@@ -28885,19 +29074,22 @@
       <c r="G54" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="H54" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" ht="16.8">
+    <row r="55" spans="1:8" ht="16.5">
       <c r="A55" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>72</v>
@@ -28908,19 +29100,22 @@
       <c r="G55" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="H55" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" ht="16.8">
+    <row r="56" spans="1:8" ht="16.5">
       <c r="A56" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>72</v>
@@ -28931,19 +29126,22 @@
       <c r="G56" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="H56" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" ht="16.8">
+    <row r="57" spans="1:8" ht="16.5">
       <c r="A57" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>72</v>
@@ -28954,19 +29152,22 @@
       <c r="G57" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="H57" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" ht="16.8">
+    <row r="58" spans="1:8" ht="16.5">
       <c r="A58" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>72</v>
@@ -28977,19 +29178,22 @@
       <c r="G58" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H58" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" ht="16.8">
+    <row r="59" spans="1:8" ht="16.5">
       <c r="A59" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>72</v>
@@ -29000,19 +29204,22 @@
       <c r="G59" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="H59" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" ht="16.8">
+    <row r="60" spans="1:8" ht="16.5">
       <c r="A60" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>72</v>
@@ -29023,19 +29230,22 @@
       <c r="G60" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H60" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" ht="16.8">
+    <row r="61" spans="1:8" ht="16.5">
       <c r="A61" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>72</v>
@@ -29046,19 +29256,22 @@
       <c r="G61" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="H61" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" ht="16.8">
+    <row r="62" spans="1:8" ht="16.5">
       <c r="A62" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>72</v>
@@ -29069,19 +29282,22 @@
       <c r="G62" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="H62" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" ht="16.8">
+    <row r="63" spans="1:8" ht="16.5">
       <c r="A63" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D63" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>72</v>
@@ -29092,19 +29308,22 @@
       <c r="G63" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="H63" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" ht="16.8">
+    <row r="64" spans="1:8" ht="16.5">
       <c r="A64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D64" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>72</v>
@@ -29115,19 +29334,22 @@
       <c r="G64" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="H64" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" ht="16.8">
+    <row r="65" spans="1:8" ht="16.5">
       <c r="A65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D65" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>72</v>
@@ -29138,19 +29360,22 @@
       <c r="G65" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="H65" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" ht="16.8">
+    <row r="66" spans="1:8" ht="16.5">
       <c r="A66" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D66" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>72</v>
@@ -29161,19 +29386,22 @@
       <c r="G66" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="H66" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" ht="16.8">
+    <row r="67" spans="1:8" ht="16.5">
       <c r="A67" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>72</v>
@@ -29184,19 +29412,22 @@
       <c r="G67" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="H67" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" ht="16.8">
+    <row r="68" spans="1:8" ht="16.5">
       <c r="A68" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D68" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>72</v>
@@ -29207,19 +29438,22 @@
       <c r="G68" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="H68" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="69" spans="1:7" ht="16.8">
+    <row r="69" spans="1:8" ht="16.5">
       <c r="A69" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D69" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>72</v>
@@ -29230,19 +29464,22 @@
       <c r="G69" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="H69" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="70" spans="1:7" ht="16.8">
+    <row r="70" spans="1:8" ht="16.5">
       <c r="A70" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D70" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>72</v>
@@ -29253,19 +29490,22 @@
       <c r="G70" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="H70" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="71" spans="1:7" ht="16.8">
+    <row r="71" spans="1:8" ht="16.5">
       <c r="A71" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>72</v>
@@ -29276,19 +29516,22 @@
       <c r="G71" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="H71" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="72" spans="1:7" ht="16.8">
+    <row r="72" spans="1:8" ht="16.5">
       <c r="A72" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D72" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>72</v>
@@ -29299,19 +29542,22 @@
       <c r="G72" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H72" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="73" spans="1:7" ht="16.8">
+    <row r="73" spans="1:8" ht="16.5">
       <c r="A73" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D73" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>72</v>
@@ -29322,22 +29568,25 @@
       <c r="G73" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="H73" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="74" spans="1:7" ht="16.8">
+    <row r="74" spans="1:8" ht="16.5">
       <c r="A74" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D74" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F74" s="6">
         <v>1</v>
@@ -29345,22 +29594,25 @@
       <c r="G74" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="H74" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="75" spans="1:7" ht="16.8">
+    <row r="75" spans="1:8" ht="16.5">
       <c r="A75" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D75" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="6">
         <v>2</v>
@@ -29368,22 +29620,25 @@
       <c r="G75" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="H75" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="76" spans="1:7" ht="16.8">
+    <row r="76" spans="1:8" ht="16.5">
       <c r="A76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D76" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F76" s="6">
         <v>3</v>
@@ -29391,22 +29646,25 @@
       <c r="G76" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="H76" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="77" spans="1:7" ht="16.8">
+    <row r="77" spans="1:8" ht="16.5">
       <c r="A77" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D77" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
@@ -29414,22 +29672,25 @@
       <c r="G77" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="H77" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="78" spans="1:7" ht="16.8">
+    <row r="78" spans="1:8" ht="16.5">
       <c r="A78" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D78" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F78" s="6">
         <v>5</v>
@@ -29437,22 +29698,25 @@
       <c r="G78" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="H78" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="79" spans="1:7" ht="16.8">
+    <row r="79" spans="1:8" ht="16.5">
       <c r="A79" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D79" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F79" s="6">
         <v>6</v>
@@ -29460,22 +29724,25 @@
       <c r="G79" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="H79" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="80" spans="1:7" ht="16.8">
+    <row r="80" spans="1:8" ht="16.5">
       <c r="A80" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D80" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F80" s="6">
         <v>7</v>
@@ -29483,22 +29750,25 @@
       <c r="G80" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="H80" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="81" spans="1:7" ht="16.8">
+    <row r="81" spans="1:8" ht="16.5">
       <c r="A81" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D81" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F81" s="6">
         <v>8</v>
@@ -29506,22 +29776,25 @@
       <c r="G81" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="H81" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="82" spans="1:7" ht="16.8">
+    <row r="82" spans="1:8" ht="16.5">
       <c r="A82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D82" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" s="6">
         <v>9</v>
@@ -29529,22 +29802,25 @@
       <c r="G82" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="H82" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="83" spans="1:7" ht="16.8">
+    <row r="83" spans="1:8" ht="16.5">
       <c r="A83" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D83" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F83" s="6">
         <v>10</v>
@@ -29552,22 +29828,25 @@
       <c r="G83" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="H83" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="84" spans="1:7" ht="16.8">
+    <row r="84" spans="1:8" ht="16.5">
       <c r="A84" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D84" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F84" s="6">
         <v>11</v>
@@ -29575,22 +29854,25 @@
       <c r="G84" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="H84" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="85" spans="1:7" ht="16.8">
+    <row r="85" spans="1:8" ht="16.5">
       <c r="A85" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D85" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F85" s="6">
         <v>12</v>
@@ -29598,22 +29880,25 @@
       <c r="G85" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="H85" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="86" spans="1:7" ht="16.8">
+    <row r="86" spans="1:8" ht="16.5">
       <c r="A86" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D86" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F86" s="6">
         <v>13</v>
@@ -29621,2880 +29906,3284 @@
       <c r="G86" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="H86" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="87" spans="1:7" ht="16.8">
+    <row r="87" spans="1:8" ht="16.5">
       <c r="A87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D87" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="6">
         <v>14</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>86</v>
+        <v>229</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.8">
+    <row r="88" spans="1:8" ht="16.5">
       <c r="A88" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D88" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F88" s="6">
         <v>15</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.8">
+    <row r="89" spans="1:8" ht="16.5">
       <c r="A89" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D89" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F89" s="6">
         <v>16</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.8">
+    <row r="90" spans="1:8" ht="16.5">
       <c r="A90" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D90" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F90" s="6">
         <v>17</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="20.399999999999999">
+    <row r="91" spans="1:8" ht="18">
       <c r="A91" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D91" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F91" s="6">
         <v>18</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.8">
+    <row r="92" spans="1:8" ht="16.5">
       <c r="A92" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D92" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F92" s="6">
         <v>19</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.8">
+    <row r="93" spans="1:8" ht="16.5">
       <c r="A93" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D93" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F93" s="6">
         <v>20</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.8">
+    <row r="94" spans="1:8" ht="16.5">
       <c r="A94" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D94" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F94" s="6">
         <v>21</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.8">
+    <row r="95" spans="1:8" ht="16.5">
       <c r="A95" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D95" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95" s="6">
         <v>22</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.8">
+    <row r="96" spans="1:8" ht="16.5">
       <c r="A96" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D96" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F96" s="6">
         <v>23</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.8">
+    <row r="97" spans="1:8" ht="16.5">
       <c r="A97" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D97" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F97" s="6">
         <v>24</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.8">
+    <row r="98" spans="1:8" ht="16.5">
       <c r="A98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D98" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98" s="6">
         <v>25</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.8">
+    <row r="99" spans="1:8" ht="16.5">
       <c r="A99" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D99" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F99" s="6">
         <v>26</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.8">
+    <row r="100" spans="1:8" ht="16.5">
       <c r="A100" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D100" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F100" s="6">
         <v>27</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.8">
+    <row r="101" spans="1:8" ht="16.5">
       <c r="A101" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D101" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F101" s="6">
         <v>28</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.8">
+    <row r="102" spans="1:8" ht="16.5">
       <c r="A102" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D102" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F102" s="6">
         <v>29</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.8">
+    <row r="103" spans="1:8" ht="16.5">
       <c r="A103" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D103" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F103" s="6">
         <v>30</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.8">
+    <row r="104" spans="1:8" ht="16.5">
       <c r="A104" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D104" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F104" s="6">
         <v>31</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.8">
+    <row r="105" spans="1:8" ht="16.5">
       <c r="A105" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D105" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F105" s="6">
         <v>32</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.8">
+    <row r="106" spans="1:8" ht="16.5">
       <c r="A106" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D106" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F106" s="6">
         <v>33</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.8">
+    <row r="107" spans="1:8" ht="16.5">
       <c r="A107" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F107" s="6">
         <v>34</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.8">
+    <row r="108" spans="1:8" ht="16.5">
       <c r="A108" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D108" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F108" s="6">
         <v>35</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.8">
+    <row r="109" spans="1:8" ht="16.5">
       <c r="A109" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D109" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F109" s="6">
         <v>36</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.8">
+    <row r="110" spans="1:8" ht="16.5">
       <c r="A110" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D110" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F110" s="6">
         <v>37</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.8">
+    <row r="111" spans="1:8" ht="16.5">
       <c r="A111" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="C111" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D111" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F111" s="6">
         <v>38</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.8">
+    <row r="112" spans="1:8" ht="16.5">
       <c r="A112" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D112" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F112" s="6">
         <v>39</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.8">
+    <row r="113" spans="1:8" ht="16.5">
       <c r="A113" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D113" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F113" s="6">
         <v>1</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.8">
+    <row r="114" spans="1:8" ht="16.5">
       <c r="A114" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D114" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F114" s="6">
         <v>2</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.8">
+    <row r="115" spans="1:8" ht="16.5">
       <c r="A115" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D115" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F115" s="6">
         <v>3</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.8">
+    <row r="116" spans="1:8" ht="16.5">
       <c r="A116" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D116" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F116" s="6">
         <v>4</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.8">
+    <row r="117" spans="1:8" ht="16.5">
       <c r="A117" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D117" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F117" s="6">
         <v>5</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="33.6">
+    <row r="118" spans="1:8" ht="16.5">
       <c r="A118" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D118" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F118" s="6">
         <v>6</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.8">
+    <row r="119" spans="1:8" ht="16.5">
       <c r="A119" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D119" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F119" s="6">
         <v>7</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.8">
+    <row r="120" spans="1:8" ht="16.5">
       <c r="A120" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D120" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F120" s="6">
         <v>8</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.8">
+    <row r="121" spans="1:8" ht="16.5">
       <c r="A121" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D121" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F121" s="6">
         <v>9</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.8">
+    <row r="122" spans="1:8" ht="16.5">
       <c r="A122" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D122" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F122" s="6">
         <v>10</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.8">
+    <row r="123" spans="1:8" ht="16.5">
       <c r="A123" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D123" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F123" s="6">
         <v>11</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.8">
+    <row r="124" spans="1:8" ht="16.5">
       <c r="A124" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D124" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F124" s="6">
         <v>12</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="33.6">
+    <row r="125" spans="1:8" ht="33">
       <c r="A125" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D125" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F125" s="6">
         <v>13</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.8">
+    <row r="126" spans="1:8" ht="16.5">
       <c r="A126" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D126" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F126" s="6">
         <v>14</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.8">
+    <row r="127" spans="1:8" ht="16.5">
       <c r="A127" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D127" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F127" s="6">
         <v>15</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.8">
+    <row r="128" spans="1:8" ht="16.5">
       <c r="A128" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D128" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F128" s="6">
         <v>16</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.8">
+    <row r="129" spans="1:8" ht="16.5">
       <c r="A129" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D129" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F129" s="6">
         <v>17</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="33.6">
+    <row r="130" spans="1:8" ht="33">
       <c r="A130" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D130" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F130" s="6">
         <v>18</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.8">
+    <row r="131" spans="1:8" ht="16.5">
       <c r="A131" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D131" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F131" s="6">
         <v>1</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.8">
+    <row r="132" spans="1:8" ht="16.5">
       <c r="A132" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D132" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F132" s="6">
         <v>2</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.8">
+    <row r="133" spans="1:8" ht="16.5">
       <c r="A133" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D133" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F133" s="6">
         <v>3</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="33.6">
+    <row r="134" spans="1:8" ht="33">
       <c r="A134" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D134" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F134" s="6">
         <v>4</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.8">
+    <row r="135" spans="1:8" ht="16.5">
       <c r="A135" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="C135" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D135" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F135" s="6">
         <v>5</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16.8">
+    <row r="136" spans="1:8" ht="16.5">
       <c r="A136" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D136" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F136" s="6">
         <v>6</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.8">
+    <row r="137" spans="1:8" ht="16.5">
       <c r="A137" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D137" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F137" s="6">
         <v>7</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.8">
+    <row r="138" spans="1:8" ht="16.5">
       <c r="A138" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D138" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F138" s="6">
         <v>8</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.8">
+    <row r="139" spans="1:8" ht="16.5">
       <c r="A139" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D139" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F139" s="6">
         <v>9</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.8">
+    <row r="140" spans="1:8" ht="16.5">
       <c r="A140" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D140" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F140" s="6">
         <v>10</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.8">
+    <row r="141" spans="1:8" ht="16.5">
       <c r="A141" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D141" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F141" s="6">
         <v>11</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.8">
+    <row r="142" spans="1:8" ht="16.5">
       <c r="A142" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D142" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F142" s="6">
         <v>12</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.8">
+    <row r="143" spans="1:8" ht="16.5">
       <c r="A143" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="C143" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D143" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F143" s="6">
         <v>13</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="33.6">
+    <row r="144" spans="1:8" ht="33">
       <c r="A144" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D144" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F144" s="6">
         <v>1</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="33.6">
+    <row r="145" spans="1:8" ht="33">
       <c r="A145" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="C145" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F145" s="6">
         <v>2</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="33.6">
+    <row r="146" spans="1:8" ht="33">
       <c r="A146" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="C146" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D146" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F146" s="6">
         <v>3</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="32.4">
+    <row r="147" spans="1:8" ht="33">
       <c r="A147" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="C147" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D147" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F147" s="6">
         <v>4</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="32.4">
+    <row r="148" spans="1:8" ht="33">
       <c r="A148" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="C148" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D148" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F148" s="6">
         <v>5</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="33.6">
+    <row r="149" spans="1:8" ht="33">
       <c r="A149" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="C149" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D149" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F149" s="6">
         <v>6</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="32.4">
+    <row r="150" spans="1:8" ht="33">
       <c r="A150" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="C150" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D150" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F150" s="6">
         <v>1</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="32.4">
+    <row r="151" spans="1:8" ht="33">
       <c r="A151" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D151" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F151" s="6">
         <v>2</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="32.4">
+    <row r="152" spans="1:8" ht="33">
       <c r="A152" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D152" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F152" s="6">
         <v>3</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="32.4">
+    <row r="153" spans="1:8" ht="33">
       <c r="A153" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D153" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F153" s="6">
         <v>4</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="32.4">
+    <row r="154" spans="1:8" ht="33">
       <c r="A154" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D154" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F154" s="6">
         <v>5</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="32.4">
+    <row r="155" spans="1:8" ht="33">
       <c r="A155" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D155" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F155" s="6">
         <v>6</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="32.4">
+    <row r="156" spans="1:8" ht="33">
       <c r="A156" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D156" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F156" s="6">
         <v>7</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="32.4">
+    <row r="157" spans="1:8" ht="33">
       <c r="A157" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D157" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F157" s="6">
         <v>8</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="32.4">
+    <row r="158" spans="1:8" ht="33">
       <c r="A158" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D158" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F158" s="6">
         <v>9</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="32.4">
+    <row r="159" spans="1:8" ht="33">
       <c r="A159" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D159" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F159" s="6">
         <v>10</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="32.4">
+    <row r="160" spans="1:8" ht="33">
       <c r="A160" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D160" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F160" s="6">
         <v>11</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="32.4">
+    <row r="161" spans="1:8" ht="33">
       <c r="A161" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D161" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F161" s="6">
         <v>12</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="32.4">
+    <row r="162" spans="1:8" ht="33">
       <c r="A162" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D162" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F162" s="6">
         <v>13</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="32.4">
+    <row r="163" spans="1:8" ht="33">
       <c r="A163" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D163" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F163" s="6">
         <v>14</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="33.6">
+    <row r="164" spans="1:8" ht="33">
       <c r="A164" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D164" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F164" s="6">
         <v>15</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="32.4">
+    <row r="165" spans="1:8" ht="33">
       <c r="A165" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D165" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F165" s="6">
         <v>16</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="32.4">
+    <row r="166" spans="1:8" ht="33">
       <c r="A166" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D166" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F166" s="6">
         <v>17</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="33.6">
+    <row r="167" spans="1:8" ht="33">
       <c r="A167" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D167" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F167" s="6">
         <v>18</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="32.4">
+    <row r="168" spans="1:8" ht="33">
       <c r="A168" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D168" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F168" s="6">
         <v>19</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="32.4">
+    <row r="169" spans="1:8" ht="33">
       <c r="A169" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D169" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F169" s="6">
         <v>20</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="32.4">
+    <row r="170" spans="1:8" ht="33">
       <c r="A170" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D170" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F170" s="6">
         <v>21</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="32.4">
+    <row r="171" spans="1:8" ht="33">
       <c r="A171" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D171" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F171" s="6">
         <v>22</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="32.4">
+    <row r="172" spans="1:8" ht="33">
       <c r="A172" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D172" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F172" s="6">
         <v>23</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="32.4">
+    <row r="173" spans="1:8" ht="33">
       <c r="A173" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D173" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F173" s="6">
         <v>24</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="32.4">
+    <row r="174" spans="1:8" ht="33">
       <c r="A174" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D174" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F174" s="6">
         <v>25</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="32.4">
+    <row r="175" spans="1:8" ht="33">
       <c r="A175" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D175" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F175" s="6">
         <v>26</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="32.4">
+    <row r="176" spans="1:8" ht="33">
       <c r="A176" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D176" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F176" s="6">
         <v>27</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="32.4">
+    <row r="177" spans="1:8" ht="33">
       <c r="A177" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D177" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F177" s="6">
         <v>28</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="32.4">
+    <row r="178" spans="1:8" ht="33">
       <c r="A178" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D178" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F178" s="6">
         <v>29</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="32.4">
+    <row r="179" spans="1:8" ht="33">
       <c r="A179" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D179" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F179" s="6">
         <v>30</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="32.4">
+    <row r="180" spans="1:8" ht="33">
       <c r="A180" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D180" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F180" s="6">
         <v>31</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="32.4">
+    <row r="181" spans="1:8" ht="33">
       <c r="A181" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D181" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F181" s="6">
         <v>32</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="32.4">
+    <row r="182" spans="1:8" ht="33">
       <c r="A182" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D182" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F182" s="6">
         <v>33</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="32.4">
+    <row r="183" spans="1:8" ht="33">
       <c r="A183" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D183" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F183" s="6">
         <v>34</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="33.6">
+    <row r="184" spans="1:8" ht="33">
       <c r="A184" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D184" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F184" s="6">
         <v>35</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="32.4">
+    <row r="185" spans="1:8" ht="33">
       <c r="A185" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D185" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F185" s="6">
         <v>36</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="32.4">
+    <row r="186" spans="1:8" ht="33">
       <c r="A186" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D186" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F186" s="6">
         <v>37</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="32.4">
+    <row r="187" spans="1:8" ht="33">
       <c r="A187" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D187" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F187" s="6">
         <v>38</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.8">
+    <row r="188" spans="1:8" ht="16.5">
       <c r="A188" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D188" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F188" s="6">
         <v>1</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.2">
+    <row r="189" spans="1:8" ht="16.5">
       <c r="A189" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="C189" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D189" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F189" s="6">
         <v>2</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.2">
+    <row r="190" spans="1:8" ht="16.5">
       <c r="A190" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D190" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F190" s="6">
         <v>3</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.2">
+    <row r="191" spans="1:8" ht="16.5">
       <c r="A191" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D191" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F191" s="6">
         <v>4</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.2">
+    <row r="192" spans="1:8" ht="16.5">
       <c r="A192" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="C192" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D192" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F192" s="6">
         <v>5</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.2">
+    <row r="193" spans="1:8" ht="16.5">
       <c r="A193" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D193" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F193" s="6">
         <v>6</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.2">
+    <row r="194" spans="1:8" ht="16.5">
       <c r="A194" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D194" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F194" s="6">
         <v>7</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.2">
+    <row r="195" spans="1:8" ht="16.5">
       <c r="A195" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D195" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F195" s="6">
         <v>8</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.2">
+    <row r="196" spans="1:8" ht="16.5">
       <c r="A196" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D196" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F196" s="6">
         <v>9</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.2">
+    <row r="197" spans="1:8" ht="16.5">
       <c r="A197" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D197" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F197" s="6">
         <v>10</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.2">
+    <row r="198" spans="1:8" ht="16.5">
       <c r="A198" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D198" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F198" s="6">
         <v>11</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.2">
+    <row r="199" spans="1:8" ht="16.5">
       <c r="A199" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="C199" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D199" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F199" s="6">
         <v>12</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.2">
+    <row r="200" spans="1:8" ht="16.5">
       <c r="A200" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D200" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F200" s="6">
         <v>13</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.2">
+    <row r="201" spans="1:8" ht="16.5">
       <c r="A201" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D201" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F201" s="6">
         <v>14</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.8">
+    <row r="202" spans="1:8" ht="16.5">
       <c r="A202" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D202" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E202" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="F202" s="6">
         <v>1</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.8">
+    <row r="203" spans="1:8" ht="16.5">
       <c r="A203" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D203" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="F203" s="6">
         <v>2</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.8">
+    <row r="204" spans="1:8" ht="16.5">
       <c r="A204" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D204" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="F204" s="6">
         <v>3</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.8">
+    <row r="205" spans="1:8" ht="16.5">
       <c r="A205" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D205" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F205" s="6">
         <v>1</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.8">
+    <row r="206" spans="1:8" ht="16.5">
       <c r="A206" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="C206" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D206" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F206" s="6">
         <v>2</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.8">
+    <row r="207" spans="1:8" ht="16.5">
       <c r="A207" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D207" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F207" s="6">
         <v>3</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.8">
+    <row r="208" spans="1:8" ht="16.5">
       <c r="A208" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="C208" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D208" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F208" s="6">
         <v>4</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.8">
+    <row r="209" spans="1:8" ht="16.5">
       <c r="A209" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="C209" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D209" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F209" s="6">
         <v>1</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.8">
+    <row r="210" spans="1:8" ht="16.5">
       <c r="A210" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="C210" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D210" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F210" s="6">
         <v>2</v>
       </c>
       <c r="G210" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="16.5">
+      <c r="A211" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D211" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="16.8">
-      <c r="A211" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="E211" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F211" s="6">
         <v>3</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="49.5">
+      <c r="A212" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -32519,7 +33208,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>201</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -32544,7 +33233,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>201</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -32569,7 +33258,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>201</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Question DataBase System\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89726044-7272-43AC-A125-8565240E0AF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3774C0DA-C860-4EA3-8B23-854676DBAD02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27027,7 +27027,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>database\\數學\\應用題\\典型應用題\\燕尾定理\\基本題\\1.png database\\數學\\應用題\\典型應用題\\燕尾定理\\基本題\\2.png</t>
+    <t>1.png 2.png</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -33160,7 +33160,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="49.5">
+    <row r="212" spans="1:8" ht="16.5">
       <c r="A212" s="6" t="s">
         <v>190</v>
       </c>
@@ -33189,7 +33189,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Question DataBase System\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3774C0DA-C860-4EA3-8B23-854676DBAD02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDFED02-F7CE-4F09-9F39-F4AD9E9C414A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1830" windowWidth="10185" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="300">
   <si>
     <r>
       <rPr>
@@ -27027,7 +27027,271 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.png 2.png</t>
+    <t>如圖，△ABC中，若3BD ＝2CD ，則△ABF面積：△ACF面積的比值＝【2/3】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右圖的大三角形被分成5個小三角形，其中4個的面積已經標在圖中，那麼，陰影三角形的面積＝【2】
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一外一內比1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一外一內比2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在△ABC中，BD＝2DC，AE＝ED。已知△ABC的面積是5 cm2。求陰影部份的面積 ＝【2】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖所示，AE＝ED，BC＝3BD，△ABC面積是30 cm2。求：陰影部分的面積＝【12】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在△ABC中，BD：DC＝2：3，E是AD的中點。求：陰影部份的面積是△ABC的幾分之幾：【3/8 】
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>若 BD：CD ＝2：5， AE：DE ＝1：4，則△ABE面積：△CDE面積＝【 1：10 】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖，在△ABC中，DC＝3BD，AE＝ED。若△ABC的面積是1，則：陰影部份的面積＝【 3/7】
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1.jpg 5_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如圖，在△ABC中，BE：EC＝3：1，D是AE的中點，那麼AF：FC＝【3：4】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1.jpg 6_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">△ABC中， AD：DC ＝1：3，E為BD 之中點，AE 之延長線BC交 於F，則BF：FC ＝【 1：4 】
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BD：CD ＝4：3， AE：ED ＝3：2，則△ABD　面積：△ABC　面積＝【 4：7 】；△ABE　面積：△ABC　面積＝【　12：35　】
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">△ABC中， AE：ED ＝2：1， BD：CD ＝5：3。若△AEC的面積為18cm2，則： △ABC的面積＝【72】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">△ABC中BC＝4CD， E是AD的中點。已知△ABC的面積是112 cm2，求：四邊形CDEF的面積＝【22】cm2
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_1.jpg 10_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D是BC的中點，E是AD的中點。已知△ABC的面積是36 cm2。求：四邊形CDEF的面積＝【15】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D是BC上的一點，BD＝3DC，E是AD上的一點，AE＝ED。那麼四邊形CDEF的面積是ABC面積的幾分之幾:【 11/56】
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖，已知△ABD的面積為72cm2，且DC＝ 1/2BD，AE＝ED，連接BE並延長，交AC於F。求：四邊形CDEF的面積＝【28.8】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖所示，AE＝ED，DC＝ BD，△ABC面積＝21 cm2。求：陰影部分的面積＝【9】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖，△ABC的面積為15cm2，D是BC邊上的一點，BD＝2DC，E是AD上的一點，AE＝ED，連接BE並延長，交AC於點F。求：圖中四邊形CDEF的面積【4】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如下圖，在△ABC中，BD＝2DC，AE＝ED，已知三角形ABC的面積是5cm2，求：陰影部份的面積是【2】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已知S△ABC＝1，AE＝ED，BD＝ 2/3BC，求：陰影部分的面積＝【2/5 】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_1.jpg 17_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如下圖，取△ABC的邊BC的三等分點D，連接AD並取中點E，連接BE並延長與AC相交於點F，那麼四邊形CDEF的面積是三角形ABC面積的【4/15 】。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_1.jpg 20_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_1.jpg 22_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如下圖，在三角形ABC中，BD：DC＝2：3，E是AD的中點。求陰影部份的面積是三角形ABC面積的【 3/8 】。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖，D是△ABC中BC邊上的一點，BC＝4CD，連接AD，E是AD的中點，連接BE並延長，交AC於點F，已知△ABC的面積112cm2，求四邊形CDEF  的面積【22】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">已知圖中三角形ABC的面積為8 cm2，AE＝ED，BD＝ 2/3BC，求：陰影部分的面積＝【3.2】cm2
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如下圖，在△ABC中，DC＝3BD，AE＝ED，若△ABC的面積是10cm2，則陰影部份的面積是【 30/7 】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在△ABC中，DC＝3BD，DE＝EA，若△ABC的面積是2，則陰影部分面積＝【 6/7 】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D是BC上的一點，且BD＝3DC，E是AD上的一點，且AE＝2ED。已知△ABC的面積是60 cm2。求：四邊形CDEF的面積＝【9】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如圖所示，DE＝ 1/2AE，BD＝2DC，S△EBD＝5 cm2。求：三角形ABC的面積 ＝【45/2 】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在△ABC中，DC：BC＝2：5，BO：OE＝4：1，那麼AE與EC的比＝【3:5】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">△ABC的面積是12 cm2，且AE＝ 1/2EC，F是AD的中點，則：陰影部份的面積  ＝【5】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1.jpg 2_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四邊形</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正方形ABCD的邊長28 cm2，F是BC的中點，AB的長是EB的4倍。連接AF、 CE，相交於G點。求：四邊形AGCD的面積＝【560】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">長方形ABCD的面積是2 cm2，EC＝2DE， F是DG的中點，陰影部分的面積＝【 5/12 】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">四邊形ABCD是邊長為12 cm的正方形，E、F分別是AB、BC的中點，AF與CE相交於G，則四邊形AGCD的面積＝【96】cm2。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1.jpg 1_2.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1.jpg 2_2.jpg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -27176,7 +27440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -27212,6 +27476,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27660,17 +27927,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="D193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="187.7109375" customWidth="1"/>
+    <col min="7" max="7" width="106.5703125" customWidth="1"/>
     <col min="8" max="8" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33183,7 +33450,839 @@
         <v>231</v>
       </c>
       <c r="H212" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="16.5">
+      <c r="A213" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F213" s="6">
+        <v>2</v>
+      </c>
+      <c r="G213" s="7" t="s">
         <v>236</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="16.5">
+      <c r="A214" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F214" s="6">
+        <v>3</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="16.5">
+      <c r="A215" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F215" s="6">
+        <v>1</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="16.5">
+      <c r="A216" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F216" s="6">
+        <v>2</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="16.5">
+      <c r="A217" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F217" s="6">
+        <v>3</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="16.5">
+      <c r="A218" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F218" s="6">
+        <v>4</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="31.5">
+      <c r="A219" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F219" s="6">
+        <v>5</v>
+      </c>
+      <c r="G219" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="16.5">
+      <c r="A220" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F220" s="6">
+        <v>6</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="31.5">
+      <c r="A221" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F221" s="6">
+        <v>7</v>
+      </c>
+      <c r="G221" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="47.25">
+      <c r="A222" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F222" s="6">
+        <v>8</v>
+      </c>
+      <c r="G222" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="31.5">
+      <c r="A223" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F223" s="6">
+        <v>9</v>
+      </c>
+      <c r="G223" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="31.5">
+      <c r="A224" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F224" s="6">
+        <v>10</v>
+      </c>
+      <c r="G224" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="31.5">
+      <c r="A225" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F225" s="6">
+        <v>11</v>
+      </c>
+      <c r="G225" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H225" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="47.25">
+      <c r="A226" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F226" s="6">
+        <v>12</v>
+      </c>
+      <c r="G226" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="47.25">
+      <c r="A227" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F227" s="6">
+        <v>13</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="31.5">
+      <c r="A228" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F228" s="6">
+        <v>14</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="47.25">
+      <c r="A229" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F229" s="6">
+        <v>15</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="31.5">
+      <c r="A230" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F230" s="6">
+        <v>16</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="16.5">
+      <c r="A231" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F231" s="6">
+        <v>17</v>
+      </c>
+      <c r="G231" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="47.25">
+      <c r="A232" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F232" s="6">
+        <v>18</v>
+      </c>
+      <c r="G232" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H232" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="31.5">
+      <c r="A233" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F233" s="6">
+        <v>19</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="47.25">
+      <c r="A234" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F234" s="6">
+        <v>20</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="31.5">
+      <c r="A235" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F235" s="6">
+        <v>21</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="31.5">
+      <c r="A236" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F236" s="6">
+        <v>22</v>
+      </c>
+      <c r="G236" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="16.5">
+      <c r="A237" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F237" s="6">
+        <v>23</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="47.25">
+      <c r="A238" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F238" s="6">
+        <v>24</v>
+      </c>
+      <c r="G238" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="31.5">
+      <c r="A239" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F239" s="6">
+        <v>25</v>
+      </c>
+      <c r="G239" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="16.5">
+      <c r="A240" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F240" s="6">
+        <v>1</v>
+      </c>
+      <c r="G240" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="31.5">
+      <c r="A241" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F241" s="6">
+        <v>2</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="47.25">
+      <c r="A242" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F242" s="6">
+        <v>1</v>
+      </c>
+      <c r="G242" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="31.5">
+      <c r="A243" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F243" s="6">
+        <v>2</v>
+      </c>
+      <c r="G243" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H243" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="47.25">
+      <c r="A244" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F244" s="6">
+        <v>3</v>
+      </c>
+      <c r="G244" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="H244" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Question DataBase System\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDFED02-F7CE-4F09-9F39-F4AD9E9C414A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27274C3-372E-46CF-BA5D-80606834FC7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1830" windowWidth="10185" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12255" yWindow="1845" windowWidth="14505" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="299">
   <si>
     <r>
       <rPr>
@@ -27261,10 +27261,6 @@
   <si>
     <t xml:space="preserve">△ABC的面積是12 cm2，且AE＝ 1/2EC，F是AD的中點，則：陰影部份的面積  ＝【5】cm2。
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1.jpg 2_2.jpg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -27929,8 +27925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="H192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -27967,7 +27963,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="6" t="s">
         <v>190</v>
       </c>
@@ -27993,7 +27989,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="33">
       <c r="A3" s="6" t="s">
         <v>190</v>
       </c>
@@ -28045,7 +28041,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="33">
       <c r="A5" s="6" t="s">
         <v>190</v>
       </c>
@@ -28123,7 +28119,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="6" t="s">
         <v>190</v>
       </c>
@@ -28149,7 +28145,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="33">
       <c r="A9" s="6" t="s">
         <v>190</v>
       </c>
@@ -28201,7 +28197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="33">
       <c r="A11" s="6" t="s">
         <v>190</v>
       </c>
@@ -28227,7 +28223,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="6" t="s">
         <v>190</v>
       </c>
@@ -28253,7 +28249,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="33">
       <c r="A13" s="6" t="s">
         <v>190</v>
       </c>
@@ -28279,7 +28275,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="33">
       <c r="A14" s="6" t="s">
         <v>190</v>
       </c>
@@ -29189,7 +29185,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="33">
       <c r="A49" s="6" t="s">
         <v>190</v>
       </c>
@@ -29501,7 +29497,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5">
+    <row r="61" spans="1:8" ht="33">
       <c r="A61" s="6" t="s">
         <v>190</v>
       </c>
@@ -29527,7 +29523,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5">
+    <row r="62" spans="1:8" ht="33">
       <c r="A62" s="6" t="s">
         <v>190</v>
       </c>
@@ -30853,7 +30849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16.5">
+    <row r="113" spans="1:8" ht="33">
       <c r="A113" s="6" t="s">
         <v>190</v>
       </c>
@@ -30983,7 +30979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5">
+    <row r="118" spans="1:8" ht="33">
       <c r="A118" s="6" t="s">
         <v>190</v>
       </c>
@@ -31295,7 +31291,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="33">
+    <row r="130" spans="1:8" ht="49.5">
       <c r="A130" s="6" t="s">
         <v>190</v>
       </c>
@@ -31425,7 +31421,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16.5">
+    <row r="135" spans="1:8" ht="33">
       <c r="A135" s="6" t="s">
         <v>190</v>
       </c>
@@ -31685,7 +31681,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="33">
+    <row r="145" spans="1:8" ht="49.5">
       <c r="A145" s="6" t="s">
         <v>190</v>
       </c>
@@ -31789,7 +31785,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="33">
+    <row r="149" spans="1:8" ht="49.5">
       <c r="A149" s="6" t="s">
         <v>190</v>
       </c>
@@ -34178,7 +34174,7 @@
         <v>291</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="31.5">
@@ -34221,16 +34217,16 @@
         <v>230</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F242" s="6">
         <v>1</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="31.5">
@@ -34247,16 +34243,16 @@
         <v>230</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F243" s="6">
         <v>2</v>
       </c>
       <c r="G243" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="47.25">
@@ -34273,13 +34269,13 @@
         <v>230</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F244" s="6">
         <v>3</v>
       </c>
       <c r="G244" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H244" s="6" t="s">
         <v>241</v>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Question DataBase System\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40953FD-8BEC-462E-BFAE-78718D8FF31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7428FF0-96C6-428A-8244-533FFBE8C572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="20205" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="300">
   <si>
     <t>第一層</t>
   </si>
@@ -858,9 +858,6 @@
 </t>
   </si>
   <si>
-    <t>5555</t>
-  </si>
-  <si>
     <t>NOIMAGE</t>
   </si>
   <si>
@@ -943,6 +940,14 @@
   </si>
   <si>
     <t>2_1.jpg 2_2.jpg</t>
+  </si>
+  <si>
+    <t>猜猜我再想什麼?【55555】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速寫課程中，構圖時需要先有個三角形，接著要注意動態、比例、構圖，請問一學期要交【200】張圖，才會過?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1351,13 +1356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="H245" sqref="A245:H245"/>
+      <selection activeCell="P243" sqref="P243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1408,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1434,7 +1442,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1460,7 +1468,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,7 +1494,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,7 +1520,7 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,7 +1546,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1564,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1590,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1616,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1642,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1694,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,7 +1728,7 @@
         <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1746,7 +1754,7 @@
         <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1772,7 +1780,7 @@
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,7 +1806,7 @@
         <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1824,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1850,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,7 +1884,7 @@
         <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,7 +1910,7 @@
         <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1928,7 +1936,7 @@
         <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1954,7 +1962,7 @@
         <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1980,7 +1988,7 @@
         <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2006,7 +2014,7 @@
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2032,7 +2040,7 @@
         <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2058,7 +2066,7 @@
         <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2084,7 +2092,7 @@
         <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2110,7 +2118,7 @@
         <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2136,7 +2144,7 @@
         <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,7 +2170,7 @@
         <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2188,7 +2196,7 @@
         <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2214,7 +2222,7 @@
         <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,7 +2248,7 @@
         <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,7 +2274,7 @@
         <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2292,7 +2300,7 @@
         <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,7 +2326,7 @@
         <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2344,7 +2352,7 @@
         <v>63</v>
       </c>
       <c r="H38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2370,7 +2378,7 @@
         <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2396,7 +2404,7 @@
         <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,7 +2430,7 @@
         <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2448,7 +2456,7 @@
         <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2474,7 +2482,7 @@
         <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2500,7 +2508,7 @@
         <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,7 +2534,7 @@
         <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2552,7 +2560,7 @@
         <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,7 +2586,7 @@
         <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2604,7 +2612,7 @@
         <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2630,7 +2638,7 @@
         <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2656,7 +2664,7 @@
         <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2682,7 +2690,7 @@
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2708,7 +2716,7 @@
         <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2734,7 +2742,7 @@
         <v>78</v>
       </c>
       <c r="H53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2760,7 +2768,7 @@
         <v>79</v>
       </c>
       <c r="H54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2786,7 +2794,7 @@
         <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2812,7 +2820,7 @@
         <v>81</v>
       </c>
       <c r="H56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,7 +2846,7 @@
         <v>82</v>
       </c>
       <c r="H57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,7 +2872,7 @@
         <v>83</v>
       </c>
       <c r="H58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2890,7 +2898,7 @@
         <v>84</v>
       </c>
       <c r="H59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2916,7 +2924,7 @@
         <v>85</v>
       </c>
       <c r="H60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,7 +2950,7 @@
         <v>86</v>
       </c>
       <c r="H61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2968,7 +2976,7 @@
         <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2994,7 +3002,7 @@
         <v>88</v>
       </c>
       <c r="H63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3020,7 +3028,7 @@
         <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3046,7 +3054,7 @@
         <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3072,7 +3080,7 @@
         <v>91</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3106,7 @@
         <v>92</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3124,7 +3132,7 @@
         <v>93</v>
       </c>
       <c r="H68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,7 +3158,7 @@
         <v>94</v>
       </c>
       <c r="H69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3176,7 +3184,7 @@
         <v>95</v>
       </c>
       <c r="H70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3202,7 +3210,7 @@
         <v>96</v>
       </c>
       <c r="H71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3228,7 +3236,7 @@
         <v>97</v>
       </c>
       <c r="H72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3254,7 +3262,7 @@
         <v>98</v>
       </c>
       <c r="H73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3280,7 +3288,7 @@
         <v>99</v>
       </c>
       <c r="H74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3306,7 +3314,7 @@
         <v>100</v>
       </c>
       <c r="H75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3332,7 +3340,7 @@
         <v>101</v>
       </c>
       <c r="H76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3358,7 +3366,7 @@
         <v>102</v>
       </c>
       <c r="H77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3384,7 +3392,7 @@
         <v>103</v>
       </c>
       <c r="H78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3410,7 +3418,7 @@
         <v>104</v>
       </c>
       <c r="H79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3436,7 +3444,7 @@
         <v>105</v>
       </c>
       <c r="H80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3462,7 +3470,7 @@
         <v>106</v>
       </c>
       <c r="H81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,7 +3496,7 @@
         <v>107</v>
       </c>
       <c r="H82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,7 +3522,7 @@
         <v>108</v>
       </c>
       <c r="H83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3540,7 +3548,7 @@
         <v>109</v>
       </c>
       <c r="H84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3566,7 +3574,7 @@
         <v>110</v>
       </c>
       <c r="H85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3592,7 +3600,7 @@
         <v>111</v>
       </c>
       <c r="H86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3618,7 +3626,7 @@
         <v>112</v>
       </c>
       <c r="H87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3644,7 +3652,7 @@
         <v>113</v>
       </c>
       <c r="H88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3670,7 +3678,7 @@
         <v>114</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,7 +3704,7 @@
         <v>115</v>
       </c>
       <c r="H90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3722,7 +3730,7 @@
         <v>116</v>
       </c>
       <c r="H91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,7 +3756,7 @@
         <v>117</v>
       </c>
       <c r="H92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3774,7 +3782,7 @@
         <v>118</v>
       </c>
       <c r="H93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3800,7 +3808,7 @@
         <v>119</v>
       </c>
       <c r="H94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3826,7 +3834,7 @@
         <v>120</v>
       </c>
       <c r="H95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3852,7 +3860,7 @@
         <v>121</v>
       </c>
       <c r="H96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3878,7 +3886,7 @@
         <v>122</v>
       </c>
       <c r="H97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,7 +3912,7 @@
         <v>123</v>
       </c>
       <c r="H98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3930,7 +3938,7 @@
         <v>124</v>
       </c>
       <c r="H99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3956,7 +3964,7 @@
         <v>125</v>
       </c>
       <c r="H100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3982,7 +3990,7 @@
         <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4008,7 +4016,7 @@
         <v>127</v>
       </c>
       <c r="H102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4034,7 +4042,7 @@
         <v>128</v>
       </c>
       <c r="H103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4060,7 +4068,7 @@
         <v>129</v>
       </c>
       <c r="H104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4086,7 +4094,7 @@
         <v>130</v>
       </c>
       <c r="H105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,7 +4120,7 @@
         <v>131</v>
       </c>
       <c r="H106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,7 +4146,7 @@
         <v>132</v>
       </c>
       <c r="H107" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4164,7 +4172,7 @@
         <v>133</v>
       </c>
       <c r="H108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4190,7 +4198,7 @@
         <v>134</v>
       </c>
       <c r="H109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4216,7 +4224,7 @@
         <v>135</v>
       </c>
       <c r="H110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,7 +4250,7 @@
         <v>136</v>
       </c>
       <c r="H111" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,7 +4276,7 @@
         <v>137</v>
       </c>
       <c r="H112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4294,7 +4302,7 @@
         <v>138</v>
       </c>
       <c r="H113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4320,7 +4328,7 @@
         <v>139</v>
       </c>
       <c r="H114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4346,7 +4354,7 @@
         <v>140</v>
       </c>
       <c r="H115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,7 +4380,7 @@
         <v>141</v>
       </c>
       <c r="H116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4398,7 +4406,7 @@
         <v>142</v>
       </c>
       <c r="H117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4424,7 +4432,7 @@
         <v>143</v>
       </c>
       <c r="H118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4450,7 +4458,7 @@
         <v>144</v>
       </c>
       <c r="H119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4476,7 +4484,7 @@
         <v>145</v>
       </c>
       <c r="H120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,7 +4510,7 @@
         <v>146</v>
       </c>
       <c r="H121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4528,7 +4536,7 @@
         <v>147</v>
       </c>
       <c r="H122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4554,7 +4562,7 @@
         <v>148</v>
       </c>
       <c r="H123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4580,7 +4588,7 @@
         <v>149</v>
       </c>
       <c r="H124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,7 +4614,7 @@
         <v>150</v>
       </c>
       <c r="H125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4632,7 +4640,7 @@
         <v>151</v>
       </c>
       <c r="H126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4658,7 +4666,7 @@
         <v>152</v>
       </c>
       <c r="H127" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4684,7 +4692,7 @@
         <v>153</v>
       </c>
       <c r="H128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4710,7 +4718,7 @@
         <v>154</v>
       </c>
       <c r="H129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4736,7 +4744,7 @@
         <v>155</v>
       </c>
       <c r="H130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4762,7 +4770,7 @@
         <v>156</v>
       </c>
       <c r="H131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4788,7 +4796,7 @@
         <v>157</v>
       </c>
       <c r="H132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4814,7 +4822,7 @@
         <v>158</v>
       </c>
       <c r="H133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4840,7 +4848,7 @@
         <v>159</v>
       </c>
       <c r="H134" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4866,7 +4874,7 @@
         <v>160</v>
       </c>
       <c r="H135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4892,7 +4900,7 @@
         <v>161</v>
       </c>
       <c r="H136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4918,7 +4926,7 @@
         <v>162</v>
       </c>
       <c r="H137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4944,7 +4952,7 @@
         <v>163</v>
       </c>
       <c r="H138" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4970,7 +4978,7 @@
         <v>164</v>
       </c>
       <c r="H139" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4996,7 +5004,7 @@
         <v>165</v>
       </c>
       <c r="H140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,7 +5030,7 @@
         <v>166</v>
       </c>
       <c r="H141" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5048,7 +5056,7 @@
         <v>167</v>
       </c>
       <c r="H142" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5074,7 +5082,7 @@
         <v>168</v>
       </c>
       <c r="H143" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,7 +5108,7 @@
         <v>169</v>
       </c>
       <c r="H144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5126,7 +5134,7 @@
         <v>170</v>
       </c>
       <c r="H145" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5152,7 +5160,7 @@
         <v>171</v>
       </c>
       <c r="H146" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5178,7 +5186,7 @@
         <v>172</v>
       </c>
       <c r="H147" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5204,7 +5212,7 @@
         <v>173</v>
       </c>
       <c r="H148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5230,7 +5238,7 @@
         <v>174</v>
       </c>
       <c r="H149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5256,7 +5264,7 @@
         <v>175</v>
       </c>
       <c r="H150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5282,7 +5290,7 @@
         <v>176</v>
       </c>
       <c r="H151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5308,7 +5316,7 @@
         <v>177</v>
       </c>
       <c r="H152" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5334,7 +5342,7 @@
         <v>178</v>
       </c>
       <c r="H153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5360,7 +5368,7 @@
         <v>179</v>
       </c>
       <c r="H154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5386,7 +5394,7 @@
         <v>180</v>
       </c>
       <c r="H155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5412,7 +5420,7 @@
         <v>181</v>
       </c>
       <c r="H156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5438,7 +5446,7 @@
         <v>182</v>
       </c>
       <c r="H157" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5464,7 +5472,7 @@
         <v>183</v>
       </c>
       <c r="H158" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5490,7 +5498,7 @@
         <v>184</v>
       </c>
       <c r="H159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5516,7 +5524,7 @@
         <v>185</v>
       </c>
       <c r="H160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5542,7 +5550,7 @@
         <v>186</v>
       </c>
       <c r="H161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5568,7 +5576,7 @@
         <v>187</v>
       </c>
       <c r="H162" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5594,7 +5602,7 @@
         <v>188</v>
       </c>
       <c r="H163" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5620,7 +5628,7 @@
         <v>189</v>
       </c>
       <c r="H164" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5646,7 +5654,7 @@
         <v>190</v>
       </c>
       <c r="H165" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,7 +5680,7 @@
         <v>191</v>
       </c>
       <c r="H166" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5698,7 +5706,7 @@
         <v>192</v>
       </c>
       <c r="H167" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5724,7 +5732,7 @@
         <v>193</v>
       </c>
       <c r="H168" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5750,7 +5758,7 @@
         <v>194</v>
       </c>
       <c r="H169" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5776,7 +5784,7 @@
         <v>195</v>
       </c>
       <c r="H170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5802,7 +5810,7 @@
         <v>196</v>
       </c>
       <c r="H171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5828,7 +5836,7 @@
         <v>197</v>
       </c>
       <c r="H172" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5854,7 +5862,7 @@
         <v>198</v>
       </c>
       <c r="H173" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5880,7 +5888,7 @@
         <v>199</v>
       </c>
       <c r="H174" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5906,7 +5914,7 @@
         <v>200</v>
       </c>
       <c r="H175" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5932,7 +5940,7 @@
         <v>201</v>
       </c>
       <c r="H176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5958,7 +5966,7 @@
         <v>202</v>
       </c>
       <c r="H177" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5984,7 +5992,7 @@
         <v>203</v>
       </c>
       <c r="H178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6010,7 +6018,7 @@
         <v>204</v>
       </c>
       <c r="H179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6036,7 +6044,7 @@
         <v>205</v>
       </c>
       <c r="H180" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6062,7 +6070,7 @@
         <v>206</v>
       </c>
       <c r="H181" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6088,7 +6096,7 @@
         <v>207</v>
       </c>
       <c r="H182" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6114,7 +6122,7 @@
         <v>208</v>
       </c>
       <c r="H183" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6140,7 +6148,7 @@
         <v>209</v>
       </c>
       <c r="H184" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6166,7 +6174,7 @@
         <v>210</v>
       </c>
       <c r="H185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6192,7 +6200,7 @@
         <v>211</v>
       </c>
       <c r="H186" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6218,7 +6226,7 @@
         <v>212</v>
       </c>
       <c r="H187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6244,7 +6252,7 @@
         <v>213</v>
       </c>
       <c r="H188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6270,7 +6278,7 @@
         <v>214</v>
       </c>
       <c r="H189" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6296,7 +6304,7 @@
         <v>215</v>
       </c>
       <c r="H190" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,7 +6330,7 @@
         <v>216</v>
       </c>
       <c r="H191" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6348,7 +6356,7 @@
         <v>217</v>
       </c>
       <c r="H192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6374,7 +6382,7 @@
         <v>218</v>
       </c>
       <c r="H193" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6400,7 +6408,7 @@
         <v>219</v>
       </c>
       <c r="H194" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6426,7 +6434,7 @@
         <v>220</v>
       </c>
       <c r="H195" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6452,7 +6460,7 @@
         <v>221</v>
       </c>
       <c r="H196" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6478,7 +6486,7 @@
         <v>222</v>
       </c>
       <c r="H197" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6504,7 +6512,7 @@
         <v>223</v>
       </c>
       <c r="H198" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6530,7 +6538,7 @@
         <v>224</v>
       </c>
       <c r="H199" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6556,7 +6564,7 @@
         <v>225</v>
       </c>
       <c r="H200" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6582,7 +6590,7 @@
         <v>226</v>
       </c>
       <c r="H201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6608,7 +6616,7 @@
         <v>227</v>
       </c>
       <c r="H202" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6634,7 +6642,7 @@
         <v>228</v>
       </c>
       <c r="H203" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6660,7 +6668,7 @@
         <v>229</v>
       </c>
       <c r="H204" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6686,7 +6694,7 @@
         <v>230</v>
       </c>
       <c r="H205" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6712,7 +6720,7 @@
         <v>231</v>
       </c>
       <c r="H206" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -6738,7 +6746,7 @@
         <v>232</v>
       </c>
       <c r="H207" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6764,7 +6772,7 @@
         <v>233</v>
       </c>
       <c r="H208" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6790,7 +6798,7 @@
         <v>234</v>
       </c>
       <c r="H209" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6816,7 +6824,7 @@
         <v>235</v>
       </c>
       <c r="H210" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6842,7 +6850,7 @@
         <v>236</v>
       </c>
       <c r="H211" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6868,7 +6876,7 @@
         <v>237</v>
       </c>
       <c r="H212" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6894,7 +6902,7 @@
         <v>238</v>
       </c>
       <c r="H213" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6920,7 +6928,7 @@
         <v>239</v>
       </c>
       <c r="H214" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6946,7 +6954,7 @@
         <v>240</v>
       </c>
       <c r="H215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,7 +6980,7 @@
         <v>241</v>
       </c>
       <c r="H216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -6998,7 +7006,7 @@
         <v>242</v>
       </c>
       <c r="H217" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7024,7 +7032,7 @@
         <v>243</v>
       </c>
       <c r="H218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7050,7 +7058,7 @@
         <v>244</v>
       </c>
       <c r="H219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7076,7 +7084,7 @@
         <v>245</v>
       </c>
       <c r="H220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7102,7 +7110,7 @@
         <v>246</v>
       </c>
       <c r="H221" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7128,7 +7136,7 @@
         <v>247</v>
       </c>
       <c r="H222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7154,7 +7162,7 @@
         <v>248</v>
       </c>
       <c r="H223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7180,7 +7188,7 @@
         <v>249</v>
       </c>
       <c r="H224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7206,7 +7214,7 @@
         <v>250</v>
       </c>
       <c r="H225" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7232,7 +7240,7 @@
         <v>251</v>
       </c>
       <c r="H226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7258,7 +7266,7 @@
         <v>252</v>
       </c>
       <c r="H227" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7284,7 +7292,7 @@
         <v>253</v>
       </c>
       <c r="H228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7310,7 +7318,7 @@
         <v>254</v>
       </c>
       <c r="H229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7336,7 +7344,7 @@
         <v>255</v>
       </c>
       <c r="H230" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7362,7 +7370,7 @@
         <v>256</v>
       </c>
       <c r="H231" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7388,7 +7396,7 @@
         <v>257</v>
       </c>
       <c r="H232" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7414,7 +7422,7 @@
         <v>258</v>
       </c>
       <c r="H233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7440,7 +7448,7 @@
         <v>259</v>
       </c>
       <c r="H234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7466,7 +7474,7 @@
         <v>260</v>
       </c>
       <c r="H235" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7492,7 +7500,7 @@
         <v>261</v>
       </c>
       <c r="H236" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7518,7 +7526,7 @@
         <v>262</v>
       </c>
       <c r="H237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7544,7 +7552,7 @@
         <v>263</v>
       </c>
       <c r="H238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7570,7 +7578,7 @@
         <v>264</v>
       </c>
       <c r="H239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7596,7 +7604,7 @@
         <v>265</v>
       </c>
       <c r="H240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,7 +7630,7 @@
         <v>266</v>
       </c>
       <c r="H241" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7648,7 +7656,7 @@
         <v>267</v>
       </c>
       <c r="H242" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7674,7 +7682,7 @@
         <v>268</v>
       </c>
       <c r="H243" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7700,7 +7708,7 @@
         <v>269</v>
       </c>
       <c r="H244" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -7723,10 +7731,36 @@
         <v>4</v>
       </c>
       <c r="G245" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="H245" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+      <c r="G246" t="s">
+        <v>299</v>
+      </c>
+      <c r="H246" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Question DataBase System\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7428FF0-96C6-428A-8244-533FFBE8C572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="20205" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="312">
   <si>
     <t>第一層</t>
   </si>
@@ -103,6 +97,18 @@
     <t>四邊形</t>
   </si>
   <si>
+    <t>燕尾尾</t>
+  </si>
+  <si>
+    <t>胖子</t>
+  </si>
+  <si>
+    <t>而且要很大聲啦</t>
+  </si>
+  <si>
+    <t>話語霸權</t>
+  </si>
+  <si>
     <t>貓媽媽給小貓分魚，每隻小貓分10條魚，就多出8條魚，每隻小貓分11條魚則正好分完。問：一共有【8】隻小貓、貓媽媽一共有【88】條魚</t>
   </si>
   <si>
@@ -157,7 +163,7 @@
     <t>幼稚園把一些積木分給小朋友，如果每人分2個，則剩下20個；如果每人分3個，則差40個。問：幼稚園有【60】個小朋友、一共有【140】個積木</t>
   </si>
   <si>
-    <t>將一些糖果分給幼兒班的小朋友，如果每人分3粒，還多17粒；每人分5粒，又少13粒。問：有【15】名小朋友、有【62】粒糖 </t>
+    <t xml:space="preserve">將一些糖果分給幼兒班的小朋友，如果每人分3粒，還多17粒；每人分5粒，又少13粒。問：有【15】名小朋友、有【62】粒糖 </t>
   </si>
   <si>
     <t>把一筐桃分給一些小猴。每隻小猴分5個桃，最後多16個；每隻小猴分7個，又缺12個桃子不夠分。問：小猴有【14】隻、桃有【86】個</t>
@@ -858,6 +864,38 @@
 </t>
   </si>
   <si>
+    <t>猜猜我再想什麼?【55555】</t>
+  </si>
+  <si>
+    <t>速寫課程中，構圖時需要先有個三角形，接著要注意動態、比例、構圖，請問一學期要交【200】張圖，才會過?</t>
+  </si>
+  <si>
+    <t>請填入下列公車編號
+中和 - 內湖【214】
+林口 - 圓山【936】</t>
+  </si>
+  <si>
+    <t>題目測試【214】</t>
+  </si>
+  <si>
+    <t>題目測試 2【55555】</t>
+  </si>
+  <si>
+    <t>尾尾【21487】</t>
+  </si>
+  <si>
+    <t>胖子【8887】</t>
+  </si>
+  <si>
+    <t>惡魔貓男 【你今晚的噩夢】</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>21世紀資本論</t>
+  </si>
+  <si>
     <t>NOIMAGE</t>
   </si>
   <si>
@@ -940,25 +978,17 @@
   </si>
   <si>
     <t>2_1.jpg 2_2.jpg</t>
-  </si>
-  <si>
-    <t>猜猜我再想什麼?【55555】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速寫課程中，構圖時需要先有個三角形，接著要注意動態、比例、構圖，請問一學期要交【200】張圖，才會過?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -966,15 +996,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1020,23 +1043,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1078,7 +1093,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1110,27 +1125,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,24 +1159,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1355,19 +1334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="P243" sqref="P243"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1413,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1439,13 +1413,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1465,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1491,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1517,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1543,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1569,13 +1543,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1595,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1621,13 +1595,13 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1647,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1673,13 +1647,13 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1699,13 +1673,13 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1725,13 +1699,13 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1751,13 +1725,13 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1777,13 +1751,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1803,13 +1777,13 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1829,13 +1803,13 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1855,13 +1829,13 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1881,13 +1855,13 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1907,13 +1881,13 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1933,13 +1907,13 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1959,13 +1933,13 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1985,13 +1959,13 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2011,13 +1985,13 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2037,13 +2011,13 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2063,13 +2037,13 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2089,13 +2063,13 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2115,13 +2089,13 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2141,13 +2115,13 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2167,13 +2141,13 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2193,13 +2167,13 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2219,13 +2193,13 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2245,13 +2219,13 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2271,13 +2245,13 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2297,13 +2271,13 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2323,13 +2297,13 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2349,13 +2323,13 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2375,13 +2349,13 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2401,13 +2375,13 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2427,13 +2401,13 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2453,13 +2427,13 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2479,13 +2453,13 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2505,13 +2479,13 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2531,13 +2505,13 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2557,13 +2531,13 @@
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2583,13 +2557,13 @@
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2609,13 +2583,13 @@
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2635,13 +2609,13 @@
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2661,13 +2635,13 @@
         <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2687,13 +2661,13 @@
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2713,13 +2687,13 @@
         <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2739,13 +2713,13 @@
         <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2765,13 +2739,13 @@
         <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2791,13 +2765,13 @@
         <v>54</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2817,13 +2791,13 @@
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2843,13 +2817,13 @@
         <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2869,13 +2843,13 @@
         <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2895,13 +2869,13 @@
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2921,13 +2895,13 @@
         <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2947,13 +2921,13 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2973,13 +2947,13 @@
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2999,13 +2973,13 @@
         <v>62</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3025,13 +2999,13 @@
         <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3051,13 +3025,13 @@
         <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3077,13 +3051,13 @@
         <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3103,13 +3077,13 @@
         <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3129,13 +3103,13 @@
         <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3155,13 +3129,13 @@
         <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H69" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3181,13 +3155,13 @@
         <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H70" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3207,13 +3181,13 @@
         <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3233,13 +3207,13 @@
         <v>71</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H72" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3259,13 +3233,13 @@
         <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H73" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3285,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3311,13 +3285,13 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H75" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3337,13 +3311,13 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3363,13 +3337,13 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H77" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3389,13 +3363,13 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H78" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3415,13 +3389,13 @@
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H79" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3441,13 +3415,13 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H80" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3467,13 +3441,13 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H81" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3493,13 +3467,13 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H82" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3519,13 +3493,13 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H83" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3545,13 +3519,13 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H84" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3571,13 +3545,13 @@
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H85" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3597,13 +3571,13 @@
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3623,13 +3597,13 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H87" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3649,13 +3623,13 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3675,13 +3649,13 @@
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3701,13 +3675,13 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3727,13 +3701,13 @@
         <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H91" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3753,13 +3727,13 @@
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3779,13 +3753,13 @@
         <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H93" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3805,13 +3779,13 @@
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3831,13 +3805,13 @@
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H95" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3857,13 +3831,13 @@
         <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3883,13 +3857,13 @@
         <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3909,13 +3883,13 @@
         <v>25</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H98" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3935,13 +3909,13 @@
         <v>26</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3961,13 +3935,13 @@
         <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H100" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3987,13 +3961,13 @@
         <v>28</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H101" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -4013,13 +3987,13 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H102" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -4039,13 +4013,13 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -4065,13 +4039,13 @@
         <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H104" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4091,13 +4065,13 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H105" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -4117,13 +4091,13 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H106" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -4143,13 +4117,13 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -4169,13 +4143,13 @@
         <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H108" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -4195,13 +4169,13 @@
         <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H109" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -4221,13 +4195,13 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H110" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -4247,13 +4221,13 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H111" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -4273,13 +4247,13 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H112" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4299,13 +4273,13 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H113" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4325,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4351,13 +4325,13 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H115" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4377,13 +4351,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H116" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4403,13 +4377,13 @@
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H117" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4429,13 +4403,13 @@
         <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H118" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4455,13 +4429,13 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H119" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4481,13 +4455,13 @@
         <v>8</v>
       </c>
       <c r="G120" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H120" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4507,13 +4481,13 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H121" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4533,13 +4507,13 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4559,13 +4533,13 @@
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H123" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4585,13 +4559,13 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H124" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4611,13 +4585,13 @@
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H125" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4637,13 +4611,13 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H126" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4663,13 +4637,13 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H127" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4689,13 +4663,13 @@
         <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H128" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4715,13 +4689,13 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H129" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4741,13 +4715,13 @@
         <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H130" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4767,13 +4741,13 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H131" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4793,13 +4767,13 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H132" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4819,13 +4793,13 @@
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H133" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4845,13 +4819,13 @@
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H134" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4871,13 +4845,13 @@
         <v>5</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H135" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4897,13 +4871,13 @@
         <v>6</v>
       </c>
       <c r="G136" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H136" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4923,13 +4897,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H137" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4949,13 +4923,13 @@
         <v>8</v>
       </c>
       <c r="G138" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H138" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4975,13 +4949,13 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H139" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -5001,13 +4975,13 @@
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H140" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -5027,13 +5001,13 @@
         <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H141" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -5053,13 +5027,13 @@
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H142" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -5079,13 +5053,13 @@
         <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H143" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -5105,13 +5079,13 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H144" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -5131,13 +5105,13 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H145" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -5157,13 +5131,13 @@
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H146" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -5183,13 +5157,13 @@
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H147" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -5209,13 +5183,13 @@
         <v>5</v>
       </c>
       <c r="G148" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H148" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -5235,13 +5209,13 @@
         <v>6</v>
       </c>
       <c r="G149" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H149" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -5261,13 +5235,13 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H150" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -5287,13 +5261,13 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H151" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -5313,13 +5287,13 @@
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H152" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5339,13 +5313,13 @@
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H153" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -5365,13 +5339,13 @@
         <v>5</v>
       </c>
       <c r="G154" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -5391,13 +5365,13 @@
         <v>6</v>
       </c>
       <c r="G155" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -5417,13 +5391,13 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H156" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -5443,13 +5417,13 @@
         <v>8</v>
       </c>
       <c r="G157" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H157" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -5469,13 +5443,13 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -5495,13 +5469,13 @@
         <v>10</v>
       </c>
       <c r="G159" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H159" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -5521,13 +5495,13 @@
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H160" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -5547,13 +5521,13 @@
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H161" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -5573,13 +5547,13 @@
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H162" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -5599,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H163" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -5625,13 +5599,13 @@
         <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H164" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -5651,13 +5625,13 @@
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H165" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -5677,13 +5651,13 @@
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H166" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -5703,13 +5677,13 @@
         <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H167" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -5729,13 +5703,13 @@
         <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H168" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -5755,13 +5729,13 @@
         <v>20</v>
       </c>
       <c r="G169" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H169" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -5781,13 +5755,13 @@
         <v>21</v>
       </c>
       <c r="G170" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H170" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -5807,13 +5781,13 @@
         <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H171" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -5833,13 +5807,13 @@
         <v>23</v>
       </c>
       <c r="G172" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H172" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -5859,13 +5833,13 @@
         <v>24</v>
       </c>
       <c r="G173" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H173" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -5885,13 +5859,13 @@
         <v>25</v>
       </c>
       <c r="G174" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H174" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -5911,13 +5885,13 @@
         <v>26</v>
       </c>
       <c r="G175" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H175" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -5937,13 +5911,13 @@
         <v>27</v>
       </c>
       <c r="G176" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H176" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5963,13 +5937,13 @@
         <v>28</v>
       </c>
       <c r="G177" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H177" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5989,13 +5963,13 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H178" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -6015,13 +5989,13 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H179" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -6041,13 +6015,13 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H180" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -6067,13 +6041,13 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H181" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -6093,13 +6067,13 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H182" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -6119,13 +6093,13 @@
         <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H183" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -6145,13 +6119,13 @@
         <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H184" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -6171,13 +6145,13 @@
         <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H185" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -6197,13 +6171,13 @@
         <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H186" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -6223,13 +6197,13 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H187" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -6249,13 +6223,13 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H188" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -6275,13 +6249,13 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H189" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -6301,13 +6275,13 @@
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H190" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -6327,13 +6301,13 @@
         <v>4</v>
       </c>
       <c r="G191" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H191" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -6353,13 +6327,13 @@
         <v>5</v>
       </c>
       <c r="G192" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H192" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -6379,13 +6353,13 @@
         <v>6</v>
       </c>
       <c r="G193" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H193" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -6405,13 +6379,13 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H194" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -6431,13 +6405,13 @@
         <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H195" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -6457,13 +6431,13 @@
         <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H196" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -6483,13 +6457,13 @@
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H197" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -6509,13 +6483,13 @@
         <v>11</v>
       </c>
       <c r="G198" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H198" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -6535,13 +6509,13 @@
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H199" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -6561,13 +6535,13 @@
         <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H200" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -6587,13 +6561,13 @@
         <v>14</v>
       </c>
       <c r="G201" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H201" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -6613,13 +6587,13 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H202" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -6639,13 +6613,13 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H203" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -6665,13 +6639,13 @@
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H204" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -6691,13 +6665,13 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H205" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -6717,13 +6691,13 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H206" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -6743,13 +6717,13 @@
         <v>3</v>
       </c>
       <c r="G207" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H207" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -6769,13 +6743,13 @@
         <v>4</v>
       </c>
       <c r="G208" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H208" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -6795,13 +6769,13 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H209" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -6821,13 +6795,13 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H210" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -6847,13 +6821,13 @@
         <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H211" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -6873,13 +6847,13 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H212" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -6899,13 +6873,13 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H213" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -6925,13 +6899,13 @@
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H214" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -6951,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H215" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -6977,13 +6951,13 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H216" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -7003,13 +6977,13 @@
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H217" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -7029,13 +7003,13 @@
         <v>4</v>
       </c>
       <c r="G218" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H218" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -7055,13 +7029,13 @@
         <v>5</v>
       </c>
       <c r="G219" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H219" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -7081,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="G220" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H220" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -7107,13 +7081,13 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H221" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -7133,13 +7107,13 @@
         <v>8</v>
       </c>
       <c r="G222" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H222" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -7159,13 +7133,13 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H223" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -7185,13 +7159,13 @@
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H224" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -7211,13 +7185,13 @@
         <v>11</v>
       </c>
       <c r="G225" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H225" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -7237,13 +7211,13 @@
         <v>12</v>
       </c>
       <c r="G226" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H226" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -7263,13 +7237,13 @@
         <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H227" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -7289,13 +7263,13 @@
         <v>14</v>
       </c>
       <c r="G228" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H228" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -7315,13 +7289,13 @@
         <v>15</v>
       </c>
       <c r="G229" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H229" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -7341,13 +7315,13 @@
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H230" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -7367,13 +7341,13 @@
         <v>17</v>
       </c>
       <c r="G231" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H231" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -7393,13 +7367,13 @@
         <v>18</v>
       </c>
       <c r="G232" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H232" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -7419,13 +7393,13 @@
         <v>19</v>
       </c>
       <c r="G233" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H233" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -7445,13 +7419,13 @@
         <v>20</v>
       </c>
       <c r="G234" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H234" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -7471,13 +7445,13 @@
         <v>21</v>
       </c>
       <c r="G235" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H235" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -7497,13 +7471,13 @@
         <v>22</v>
       </c>
       <c r="G236" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H236" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -7523,13 +7497,13 @@
         <v>23</v>
       </c>
       <c r="G237" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H237" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -7549,13 +7523,13 @@
         <v>24</v>
       </c>
       <c r="G238" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H238" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -7575,13 +7549,13 @@
         <v>25</v>
       </c>
       <c r="G239" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H239" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -7601,13 +7575,13 @@
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H240" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -7627,13 +7601,13 @@
         <v>2</v>
       </c>
       <c r="G241" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H241" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -7653,13 +7627,13 @@
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H242" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -7679,13 +7653,13 @@
         <v>2</v>
       </c>
       <c r="G243" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H243" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -7705,13 +7679,13 @@
         <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H244" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -7731,13 +7705,13 @@
         <v>4</v>
       </c>
       <c r="G245" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H245" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -7757,15 +7731,299 @@
         <v>5</v>
       </c>
       <c r="G246" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H246" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+      <c r="F247">
+        <v>6</v>
+      </c>
+      <c r="G247" t="s">
+        <v>276</v>
+      </c>
+      <c r="H247" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+      <c r="F248">
+        <v>7</v>
+      </c>
+      <c r="G248" t="s">
+        <v>277</v>
+      </c>
+      <c r="H248" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>26</v>
+      </c>
+      <c r="F249">
+        <v>5</v>
+      </c>
+      <c r="G249" t="s">
+        <v>278</v>
+      </c>
+      <c r="H249" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>26</v>
+      </c>
+      <c r="F250">
+        <v>6</v>
+      </c>
+      <c r="G250" t="s">
+        <v>278</v>
+      </c>
+      <c r="H250" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>27</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>279</v>
+      </c>
+      <c r="H251" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s">
+        <v>28</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>280</v>
+      </c>
+      <c r="H252" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>29</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>281</v>
+      </c>
+      <c r="H253" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s">
+        <v>26</v>
+      </c>
+      <c r="F254">
+        <v>7</v>
+      </c>
+      <c r="G254" t="s">
+        <v>281</v>
+      </c>
+      <c r="H254" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>29</v>
+      </c>
+      <c r="F255">
+        <v>3</v>
+      </c>
+      <c r="G255" t="s">
+        <v>281</v>
+      </c>
+      <c r="H255" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>29</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
+      </c>
+      <c r="G256" t="s">
+        <v>282</v>
+      </c>
+      <c r="H256" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="G257" t="s">
+        <v>283</v>
+      </c>
+      <c r="H257" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="305">
   <si>
     <t xml:space="preserve">第一層</t>
   </si>
@@ -34912,81 +34912,6 @@
       </rPr>
       <t xml:space="preserve">】</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">胖子</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">胖子【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8887</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">】</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">而且要很大聲啦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">惡魔貓男 【你今晚的噩夢】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">話語霸權</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">世紀資本論</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">777777777777777777777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_1.png 1_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -35124,13 +35049,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A246" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K261" activeCellId="0" sqref="K261"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J251" activeCellId="0" sqref="J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.77"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41658,192 +41586,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="F252" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G252" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="H252" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F253" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G253" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="F254" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G254" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H254" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F255" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G255" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H255" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F256" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H256" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F257" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H257" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="F258" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10824,6 +10824,46 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>應用題</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>典型應用題</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>燕尾定理</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>四邊形</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>14</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>123459789</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>14_1.jpg 14_2.jpg 14_3.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10407,16 +10407,14 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>四邊形</t>
+          <t>胖子</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>3</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>123</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -10451,416 +10449,16 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>165165opfjwieojfiowejfpowejmfol;mwel;'fwe+6</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>4_1.jpg 4_2.png 4_3.jpg 4_4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F251" t="n">
-        <v>5</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>45698498</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>5.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F252" t="n">
-        <v>6</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>526+++6</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>6.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F253" t="n">
-        <v>7</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>89+4894123198</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>7.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F254" t="n">
-        <v>8</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>16123549789</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>8_1.png 8_2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F255" t="n">
-        <v>9</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>14245277278</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>9_1.png 9_2.jpg 9_3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F256" t="n">
-        <v>10</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>527278278</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>10_1.png 10_2.jpg 10_3.jpg 10_4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F257" t="n">
-        <v>11</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>11.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F258" t="n">
-        <v>12</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>789456123456789</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>12_1.jpg 12_2.jpg 12_3.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F259" t="n">
-        <v>13</v>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>13131313345768978</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>13_1.png 13_2.jpg 13_3.jpg 13_4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>應用題</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>典型應用題</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>燕尾定理</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>四邊形</t>
-        </is>
-      </c>
-      <c r="F260" t="n">
-        <v>14</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>123459789</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>14_1.jpg 14_2.jpg 14_3.jpg</t>
+          <t>3.png</t>
         </is>
       </c>
     </row>

--- a/database/盈虧問題v2.xlsx
+++ b/database/盈虧問題v2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10462,6 +10462,47 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>應用題</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>典型應用題</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>燕尾定理</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>四邊形</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>4</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NOIMAGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
